--- a/rapport.xlsx
+++ b/rapport.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,17 +491,17 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Dupont Émilie</t>
+          <t>julien simon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Analyste</t>
+          <t>développeur</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>it</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -509,7 +509,6 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
           <t>John Doe</t>
@@ -517,17 +516,14 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>A desactiver</t>
+        </is>
+      </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -537,17 +533,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Martin Jean</t>
+          <t>julien bernard</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Technicien</t>
+          <t>admin système</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>rh</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -555,7 +551,6 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr">
         <is>
           <t>John Doe</t>
@@ -563,17 +558,14 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>A desactiver</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -583,17 +575,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Durand Marie</t>
+          <t>françois richard</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Chargé de communication</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>RH</t>
+          <t>opérations</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -601,25 +593,13 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -629,17 +609,17 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lefèvre Antoine</t>
+          <t>emma lefevre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Juriste d'entreprise</t>
+          <t>analyste</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sécurité</t>
+          <t>opérations</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -647,7 +627,6 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
           <t>John Doe</t>
@@ -655,17 +634,14 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>A desactiver</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -675,17 +651,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Moreau Anne-Marie</t>
+          <t>emma simon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Stagiaire</t>
+          <t>chef de projet</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>rh</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -693,7 +669,6 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>John Doe</t>
@@ -701,17 +676,14 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>A desactiver</t>
+        </is>
+      </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -721,17 +693,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Dubois Luc</t>
+          <t>hugo bernard</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Auditeur interne</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Juridique</t>
+          <t>rh</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -739,25 +711,13 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -767,17 +727,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Laurent Claire</t>
+          <t>charlie bernard</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Consultant externe</t>
+          <t>analyste</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Opérations</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -785,25 +745,13 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -813,17 +761,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Simon Sophie</t>
+          <t>bob robert</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Chef de projet</t>
+          <t>analyste</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Risques</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -831,7 +779,6 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
           <t>John Doe</t>
@@ -839,17 +786,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>A desactiver</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -859,17 +803,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Michel Thomas</t>
+          <t>françois moreau</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Administrateur système</t>
+          <t>commercial</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Audit</t>
+          <t>ventes</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -877,25 +821,13 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -905,17 +837,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Leroy Julien</t>
+          <t>emma martin</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Analyste crédit</t>
+          <t>responsable rh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Communication</t>
+          <t>opérations</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -923,25 +855,13 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+      <c r="H11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -951,17 +871,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Rousseau Chloé</t>
+          <t>isabelle moreau</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Analyste</t>
+          <t>responsable rh</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>it</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -969,7 +889,6 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
           <t>John Doe</t>
@@ -977,17 +896,14 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
+          <t>A desactiver</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -997,17 +913,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Bertrand Adrien</t>
+          <t>alice lefevre</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Technicien</t>
+          <t>développeur</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Finance</t>
+          <t>support</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1015,25 +931,13 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1043,17 +947,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Morel Paul</t>
+          <t>david moreau</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Chargé de communication</t>
+          <t>architecte</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>RH</t>
+          <t>marketing</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1061,7 +965,6 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
           <t>John Doe</t>
@@ -1069,17 +972,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>A desactiver</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1089,17 +989,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Fournier Laura</t>
+          <t>emma martin</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Juriste d'entreprise</t>
+          <t>consultant</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sécurité</t>
+          <t>opérations</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1107,25 +1007,13 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
           <t>John Doe</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
+      <c r="H15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1135,17 +1023,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Girard Camille</t>
+          <t>emma moreau</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Stagiaire</t>
+          <t>analyste</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>ventes</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1153,7 +1041,6 @@
           <t>A certifier</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
           <t>John Doe</t>
@@ -1161,63 +1048,620 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>A conserver</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>A desactiver</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Conservé</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>U016</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>géraldine richard</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>architecte</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>U017</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>hugo moreau</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>comptable</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>U018</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>alice richard</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>développeur</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>rh</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>U019</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>charlie bernard</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>commercial</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>U020</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>géraldine martin</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>admin système</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>ventes</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>U021</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>géraldine moreau</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>développeur</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>finance</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>U022</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>david simon</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>commercial</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>ventes</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>U023</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>emma dupont</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>responsable rh</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>opérations</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>U024</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>françois richard</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>développeur</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>support</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>U025</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>charlie bernard</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>comptable</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>finance</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>U026</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>bob petit</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>chef de projet</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>marketing</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>U027</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>david laurent</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>commercial</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>opérations</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>U028</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>isabelle richard</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>chef de projet</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>it</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>U029</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>géraldine richard</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>analyste</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>opérations</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>U030</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Fabre Julie</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Analyste crédit</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Communication</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>A certifier</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>John Doe</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>A désactiver</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Désactivé</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>françois simon</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>admin système</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>ventes</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A certifier</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>John Doe</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>A desactiver</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Désactivé</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="3">
